--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Making Projects\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1286FC9-4DAC-43C6-8A2D-3F254B7B6181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF1708-2BCB-4A73-97C3-4F7752773F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="maths" sheetId="1" r:id="rId1"/>
+    <sheet name="bom" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>age</t>
   </si>
@@ -94,17 +95,54 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>HiLetgo 2pcs MAX7219 8-Digital Segment Digital LED Display Tube for Arduino 51/AVR/STM32</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B01D0WSCJA?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>arduino nano clone</t>
+  </si>
+  <si>
+    <t>Adafruit DS3231 Precision RTC Breakout</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3013?srsltid=AfmBOorY5_5bFqTH8Gmqvp4xZocum8U0b0bRwiaDY5xZqLUaMxEYaVcX</t>
+  </si>
+  <si>
+    <t>CR1220 3V Lithium Coin Cell</t>
+  </si>
+  <si>
+    <t>https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +153,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,16 +191,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2B1B7B-319E-4C23-AC8D-31754D55D55A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +554,7 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -502,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -526,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -552,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -565,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -577,8 +640,11 @@
         <f t="array" aca="1" ref="C7" ca="1">SUM(LEN(B7)-LEN(SUBSTITUTE(B7,CHAR(ROW(INDIRECT("48:57"))),"")))</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -590,8 +656,11 @@
         <f t="array" aca="1" ref="C8" ca="1">SUM(LEN(B8)-LEN(SUBSTITUTE(B8,CHAR(ROW(INDIRECT("48:57"))),"")))</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -603,8 +672,11 @@
         <f t="array" aca="1" ref="C9" ca="1">SUM(LEN(B9)-LEN(SUBSTITUTE(B9,CHAR(ROW(INDIRECT("48:57"))),"")))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -616,8 +688,168 @@
         <f t="array" aca="1" ref="C10" ca="1">SUM(LEN(B10)-LEN(SUBSTITUTE(B10,CHAR(ROW(INDIRECT("48:57"))),"")))</f>
         <v>10</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f>14/3</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C2:C23)</f>
+        <v>31.716666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A2CF861E-888C-4EF4-9753-1710C2F854D9}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E6DA3233-8172-4A24-9A3D-7A2A4EBE0699}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs" xr:uid="{71075C8E-0703-4C60-94E8-CD87B4076DB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Making Projects\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF1708-2BCB-4A73-97C3-4F7752773F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E52A10-F3F5-41FA-BC8F-4E9921F524D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>age</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2B1B7B-319E-4C23-AC8D-31754D55D55A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +693,15 @@
       </c>
       <c r="E10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <f>2025+B4</f>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Making Projects\Existential-Clock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E52A10-F3F5-41FA-BC8F-4E9921F524D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45FC3D-6857-45D8-BA4C-96B11521FBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>age</t>
   </si>
@@ -106,15 +106,9 @@
     <t>total</t>
   </si>
   <si>
-    <t>HiLetgo 2pcs MAX7219 8-Digital Segment Digital LED Display Tube for Arduino 51/AVR/STM32</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B01D0WSCJA?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
-  </si>
-  <si>
     <t>total cost</t>
   </si>
   <si>
@@ -134,6 +128,39 @@
   </si>
   <si>
     <t>death</t>
+  </si>
+  <si>
+    <t>Red 4 Common Cathode 0.36 Through Hole LED Character and Numeric RoHS</t>
+  </si>
+  <si>
+    <t>USB TYPE-C conversion board 2.54MM CC1 CC2 5.1K pull-down resistor connection</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005777382409.html?spm=a2g0o.order_list.order_list_main.11.48fd1802CWoXaq</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/C10708.html</t>
+  </si>
+  <si>
+    <t>MAX7219CNG 7-segment display drivers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BK6XC4P8?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>pull down resistor (nano pin D10)</t>
+  </si>
+  <si>
+    <t>cermaic capacitor (1 per driver IC)</t>
+  </si>
+  <si>
+    <t>electrolytic capacitor (1 per driver IC)</t>
+  </si>
+  <si>
+    <t>resistors (current limiting 1 per driver IC)</t>
   </si>
 </sst>
 </file>
@@ -547,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2B1B7B-319E-4C23-AC8D-31754D55D55A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +724,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <f>2025+B4</f>
@@ -711,157 +738,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2*C2</f>
+        <v>0.68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <f>14/3</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3">
-        <f>SUM(C2:C23)</f>
-        <v>31.716666666666665</v>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3">
+        <f>SUM(D2:D23)</f>
+        <v>31.31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A2CF861E-888C-4EF4-9753-1710C2F854D9}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{E6DA3233-8172-4A24-9A3D-7A2A4EBE0699}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs" xr:uid="{71075C8E-0703-4C60-94E8-CD87B4076DB4}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A2CF861E-888C-4EF4-9753-1710C2F854D9}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E6DA3233-8172-4A24-9A3D-7A2A4EBE0699}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs" xr:uid="{71075C8E-0703-4C60-94E8-CD87B4076DB4}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{AE7470A6-37D7-4AE1-8F36-D4BF7E2DDAAD}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{892A1B4E-C4A3-4779-9E3C-5908BBD47162}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45FC3D-6857-45D8-BA4C-96B11521FBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C97D6A-4779-4890-B4FD-81DFC65EAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
     <sheet name="bom" sheetId="2" r:id="rId2"/>
+    <sheet name="pinout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>age</t>
   </si>
@@ -161,6 +162,144 @@
   </si>
   <si>
     <t>resistors (current limiting 1 per driver IC)</t>
+  </si>
+  <si>
+    <t>SEGMENTS</t>
+  </si>
+  <si>
+    <t>each driver connects its segment driver pin to both segment pins on the display baords e.g. SEGA-&gt;a</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SEGA</t>
+  </si>
+  <si>
+    <t>SEGB</t>
+  </si>
+  <si>
+    <t>SEGC</t>
+  </si>
+  <si>
+    <t>SEGD</t>
+  </si>
+  <si>
+    <t>SEGE</t>
+  </si>
+  <si>
+    <t>SEGF</t>
+  </si>
+  <si>
+    <t>SEGG</t>
+  </si>
+  <si>
+    <t>SEGDP</t>
+  </si>
+  <si>
+    <t>DISP1</t>
+  </si>
+  <si>
+    <t>DISP2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>DISP3</t>
+  </si>
+  <si>
+    <t>DIGITS</t>
+  </si>
+  <si>
+    <t>Each driver connects its digit pins to the G pins of the display baords</t>
+  </si>
+  <si>
+    <t>Note the drivers go from DIG0-DIG7 = can drive max 8 segments</t>
+  </si>
+  <si>
+    <t>Corresponding G pins start at 1 so connections staggered by 1</t>
+  </si>
+  <si>
+    <t>DIG0</t>
+  </si>
+  <si>
+    <t>DIG1</t>
+  </si>
+  <si>
+    <t>DIG2</t>
+  </si>
+  <si>
+    <t>DIG3</t>
+  </si>
+  <si>
+    <t>DIG4</t>
+  </si>
+  <si>
+    <t>DIG5</t>
+  </si>
+  <si>
+    <t>DIG6</t>
+  </si>
+  <si>
+    <t>DIG7</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Arduino -&gt; header -&gt; U1_DIN -U1_DOUT -&gt; U2_DIN</t>
+  </si>
+  <si>
+    <t>Data flows from Arduino to first driver then out to second driver</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>pin 3</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>DOUT</t>
   </si>
 </sst>
 </file>
@@ -740,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1003,4 +1142,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAFC3F-1D3C-45FB-9E17-B92A724506CA}">
+  <dimension ref="A2:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C97D6A-4779-4890-B4FD-81DFC65EAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E4A20-CA3D-41B4-B1C6-F8A5647C042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>age</t>
   </si>
@@ -155,15 +155,6 @@
     <t>pull down resistor (nano pin D10)</t>
   </si>
   <si>
-    <t>cermaic capacitor (1 per driver IC)</t>
-  </si>
-  <si>
-    <t>electrolytic capacitor (1 per driver IC)</t>
-  </si>
-  <si>
-    <t>resistors (current limiting 1 per driver IC)</t>
-  </si>
-  <si>
     <t>SEGMENTS</t>
   </si>
   <si>
@@ -300,6 +291,21 @@
   </si>
   <si>
     <t>DOUT</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>7-SEGMENT DISPLAY PINOUT</t>
+  </si>
+  <si>
+    <t>electrolytic capacitor (1 per driver IC) = 10uF</t>
+  </si>
+  <si>
+    <t>resistors (current limiting 1 per driver IC) = 10k</t>
+  </si>
+  <si>
+    <t>cermaic capacitor (1 per driver IC) = 0.1uF = 100nf = "104"</t>
   </si>
 </sst>
 </file>
@@ -366,13 +372,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -879,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1031,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1034,7 +1046,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1049,7 +1061,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -1146,357 +1158,438 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAFC3F-1D3C-45FB-9E17-B92A724506CA}">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="5">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>11</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>8</v>
+      </c>
+      <c r="R6" s="5">
+        <v>7</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>3</v>
+      </c>
+      <c r="P12" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N8:Q10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E4A20-CA3D-41B4-B1C6-F8A5647C042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E6EF32-2A29-48D3-8D39-2661DE085BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>age</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>cermaic capacitor (1 per driver IC) = 0.1uF = 100nf = "104"</t>
+  </si>
+  <si>
+    <t>m3x3 threaded inserts (to fasten pcb to case)</t>
+  </si>
+  <si>
+    <t>m3x6mm bolts  (to fasten pcb to case)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,10 +1104,16 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E6EF32-2A29-48D3-8D39-2661DE085BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA180E2-E06D-417B-8CA8-15C952F7B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>age</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>m3x6mm bolts  (to fasten pcb to case)</t>
+  </si>
+  <si>
+    <t>m3 washers (to space pcb to case front)</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -897,15 +903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +940,7 @@
       <c r="B2" s="3">
         <v>0.68</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="3">
@@ -951,7 +958,7 @@
       <c r="B3" s="3">
         <v>4.67</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="3">
@@ -966,7 +973,7 @@
       <c r="B4" s="3">
         <v>17.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="3">
@@ -984,7 +991,7 @@
       <c r="B5" s="3">
         <v>2.56</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -1002,7 +1009,7 @@
       <c r="B6" s="3">
         <v>0.64</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="3">
@@ -1020,7 +1027,7 @@
       <c r="B7" s="3">
         <v>1.99</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="3">
@@ -1042,7 +1049,7 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="3">
@@ -1057,7 +1064,7 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="3">
@@ -1072,7 +1079,7 @@
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="3">
@@ -1087,7 +1094,7 @@
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -1108,6 +1115,9 @@
         <v>82</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1115,10 +1125,19 @@
         <v>83</v>
       </c>
       <c r="B16" s="3"/>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
       <c r="B17" s="3"/>
+      <c r="C17" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA180E2-E06D-417B-8CA8-15C952F7B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F4D89-7A63-4FBB-B518-B79621C7A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
     <sheet name="bom" sheetId="2" r:id="rId2"/>
     <sheet name="pinout" sheetId="3" r:id="rId3"/>
+    <sheet name="wiring" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>age</t>
   </si>
@@ -318,6 +319,63 @@
   </si>
   <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>USB-C</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>5V rail</t>
+  </si>
+  <si>
+    <t>GND rail</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>VBUS</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -903,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1192,7 +1250,7 @@
   <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,4 +1681,116 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47E72F-3022-4AB1-BC84-A5B0028E59BF}">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F4D89-7A63-4FBB-B518-B79621C7A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FF86A-812A-4519-A856-C5847B6D8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>age</t>
   </si>
@@ -300,27 +300,15 @@
     <t>7-SEGMENT DISPLAY PINOUT</t>
   </si>
   <si>
-    <t>electrolytic capacitor (1 per driver IC) = 10uF</t>
-  </si>
-  <si>
     <t>resistors (current limiting 1 per driver IC) = 10k</t>
   </si>
   <si>
     <t>cermaic capacitor (1 per driver IC) = 0.1uF = 100nf = "104"</t>
   </si>
   <si>
-    <t>m3x3 threaded inserts (to fasten pcb to case)</t>
-  </si>
-  <si>
     <t>m3x6mm bolts  (to fasten pcb to case)</t>
   </si>
   <si>
-    <t>m3 washers (to space pcb to case front)</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
     <t>Arduino</t>
   </si>
   <si>
@@ -376,6 +364,24 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>m3x6mm bolts  (to fasten back and front case together)</t>
+  </si>
+  <si>
+    <t>m3x5mm bolts  (to fasten USB-C breakout to case)</t>
+  </si>
+  <si>
+    <t>m3x3mm threaded inserts (to fasten pcb to case)</t>
+  </si>
+  <si>
+    <t>m3x3mm threaded inserts (to fasten USB-C breakout to case)</t>
+  </si>
+  <si>
+    <t>m3x3mm threaded inserts (to fasten back and front case together)</t>
+  </si>
+  <si>
+    <t>electrolytic capacitor (at main power supply) = 10uF</t>
   </si>
 </sst>
 </file>
@@ -961,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1108,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1117,7 +1123,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5">
@@ -1180,7 +1186,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5">
@@ -1190,24 +1196,42 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>85</v>
+      <c r="C17" s="5">
+        <v>2</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
       <c r="B18" s="3"/>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
       <c r="B19" s="3"/>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
       <c r="B20" s="3"/>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47E72F-3022-4AB1-BC84-A5B0028E59BF}">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1698,77 +1722,77 @@
   <sheetData>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>75</v>
@@ -1776,18 +1800,18 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71FF86A-812A-4519-A856-C5847B6D8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E61E23-9BB4-425B-A21D-2EC42D815144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
     <sheet name="bom" sheetId="2" r:id="rId2"/>
     <sheet name="pinout" sheetId="3" r:id="rId3"/>
     <sheet name="wiring" sheetId="4" r:id="rId4"/>
+    <sheet name="power" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>age</t>
   </si>
@@ -382,6 +383,21 @@
   </si>
   <si>
     <t>electrolytic capacitor (at main power supply) = 10uF</t>
+  </si>
+  <si>
+    <t>Red 7 segment</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>I (mA)</t>
+  </si>
+  <si>
+    <t>P (mW)</t>
+  </si>
+  <si>
+    <t>V (V)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +464,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -461,6 +477,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -480,6 +502,999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>power!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P (mW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>power!$A$5:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>power!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>555.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>688.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>759.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>821.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>882.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>968.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1045.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1106.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1162.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E169-4D72-BFEB-87D66A31578A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="814710319"/>
+        <c:axId val="814710799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="814710319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814710799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="814710799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814710319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89171DBC-439B-2E17-ABDD-548796CD4DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1817,4 +2832,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110D06D-0929-46BF-9621-C208DE6BEE00}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C5" s="5">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B5*C5</f>
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>A5+1</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C6" s="5">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D20" si="0">B6*C6</f>
+        <v>260.09999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" ref="A7:A20" si="1">A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C7" s="5">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>326.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C8" s="5">
+        <v>75</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C9" s="5">
+        <v>93</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>474.29999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C10" s="5">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>555.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C11" s="5">
+        <v>125</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C12" s="5">
+        <v>135</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>688.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C13" s="5">
+        <v>149</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>759.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>161</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>821.09999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C15" s="5">
+        <v>173</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>882.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C16" s="5">
+        <v>190</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>968.99999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C17" s="5">
+        <v>205</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>1045.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C18" s="5">
+        <v>217</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>1106.6999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C19" s="5">
+        <v>228</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C20" s="5">
+        <v>240</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E61E23-9BB4-425B-A21D-2EC42D815144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9410E-F9A3-436C-A245-720B7780566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="4" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -441,12 +441,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -464,7 +470,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -476,12 +482,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2401,12 +2413,12 @@
         <v>46</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -2427,10 +2439,10 @@
         <v>47</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -2451,10 +2463,10 @@
         <v>48</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
@@ -2839,7 +2851,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,12 +2861,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2871,16 +2883,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="9">
         <v>36</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <f>B5*C5</f>
         <v>183.6</v>
       </c>
@@ -2896,7 +2908,7 @@
       <c r="C6" s="5">
         <v>51</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:D20" si="0">B6*C6</f>
         <v>260.09999999999997</v>
       </c>
@@ -2912,7 +2924,7 @@
       <c r="C7" s="5">
         <v>64</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>326.39999999999998</v>
       </c>
@@ -2928,7 +2940,7 @@
       <c r="C8" s="5">
         <v>75</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>382.5</v>
       </c>
@@ -2944,7 +2956,7 @@
       <c r="C9" s="5">
         <v>93</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>474.29999999999995</v>
       </c>
@@ -2960,7 +2972,7 @@
       <c r="C10" s="5">
         <v>109</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>555.9</v>
       </c>
@@ -2976,7 +2988,7 @@
       <c r="C11" s="5">
         <v>125</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>637.5</v>
       </c>
@@ -2992,7 +3004,7 @@
       <c r="C12" s="5">
         <v>135</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>688.5</v>
       </c>
@@ -3008,7 +3020,7 @@
       <c r="C13" s="5">
         <v>149</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>759.9</v>
       </c>
@@ -3024,7 +3036,7 @@
       <c r="C14" s="5">
         <v>161</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>821.09999999999991</v>
       </c>
@@ -3040,7 +3052,7 @@
       <c r="C15" s="5">
         <v>173</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>882.3</v>
       </c>
@@ -3056,7 +3068,7 @@
       <c r="C16" s="5">
         <v>190</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>968.99999999999989</v>
       </c>
@@ -3072,7 +3084,7 @@
       <c r="C17" s="5">
         <v>205</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>1045.5</v>
       </c>
@@ -3088,7 +3100,7 @@
       <c r="C18" s="5">
         <v>217</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>1106.6999999999998</v>
       </c>
@@ -3104,7 +3116,7 @@
       <c r="C19" s="5">
         <v>228</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>1162.8</v>
       </c>
@@ -3120,7 +3132,7 @@
       <c r="C20" s="5">
         <v>240</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F9410E-F9A3-436C-A245-720B7780566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01024DF-BB44-41A3-9C57-2E90E34122D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="pinout" sheetId="3" r:id="rId3"/>
     <sheet name="wiring" sheetId="4" r:id="rId4"/>
     <sheet name="power" sheetId="5" r:id="rId5"/>
+    <sheet name="check" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>age</t>
   </si>
@@ -398,16 +399,56 @@
   </si>
   <si>
     <t>V (V)</t>
+  </si>
+  <si>
+    <t>check ID</t>
+  </si>
+  <si>
+    <t>death:</t>
+  </si>
+  <si>
+    <t>now:</t>
+  </si>
+  <si>
+    <t>delta:</t>
+  </si>
+  <si>
+    <t>go to:</t>
+  </si>
+  <si>
+    <t>https://www.unixtimestamp.com/</t>
+  </si>
+  <si>
+    <t>enter this value</t>
+  </si>
+  <si>
+    <t>this should be the display</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>delta (s)</t>
+  </si>
+  <si>
+    <t>start:</t>
+  </si>
+  <si>
+    <t>up-time (days)</t>
+  </si>
+  <si>
+    <t>DateTime deathTime value from code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -441,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +517,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -487,15 +534,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2413,12 +2467,12 @@
         <v>46</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -2439,10 +2493,10 @@
         <v>47</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -2463,10 +2517,10 @@
         <v>48</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
@@ -2850,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110D06D-0929-46BF-9621-C208DE6BEE00}">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2883,16 +2937,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>36</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>B5*C5</f>
         <v>183.6</v>
       </c>
@@ -3141,4 +3195,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3278505600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1765264500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="13">
+        <f>B3-B4</f>
+        <v>1513241100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>46000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <f>B10-$B$7</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>A10+1</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ref="A12:A27" si="0">A11+1</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01024DF-BB44-41A3-9C57-2E90E34122D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7649C8-C273-4ABF-9A5D-6F21ADC00D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>https://www.amazon.com/dp/B0BK6XC4P8?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
-    <t>pull down resistor (nano pin D10)</t>
-  </si>
-  <si>
     <t>SEGMENTS</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>cermaic capacitor (1 per driver IC) = 0.1uF = 100nf = "104"</t>
   </si>
   <si>
-    <t>m3x6mm bolts  (to fasten pcb to case)</t>
-  </si>
-  <si>
     <t>Arduino</t>
   </si>
   <si>
@@ -371,18 +365,6 @@
     <t>m3x6mm bolts  (to fasten back and front case together)</t>
   </si>
   <si>
-    <t>m3x5mm bolts  (to fasten USB-C breakout to case)</t>
-  </si>
-  <si>
-    <t>m3x3mm threaded inserts (to fasten pcb to case)</t>
-  </si>
-  <si>
-    <t>m3x3mm threaded inserts (to fasten USB-C breakout to case)</t>
-  </si>
-  <si>
-    <t>m3x3mm threaded inserts (to fasten back and front case together)</t>
-  </si>
-  <si>
     <t>electrolytic capacitor (at main power supply) = 10uF</t>
   </si>
   <si>
@@ -438,6 +420,24 @@
   </si>
   <si>
     <t>DateTime deathTime value from code</t>
+  </si>
+  <si>
+    <t>m3x6mm bolts  (to fasten USB-C breakout to case)</t>
+  </si>
+  <si>
+    <t>m3x6mm bolts  (to fasten DISPLAY pcb to case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3x3mm threaded inserts </t>
+  </si>
+  <si>
+    <t>m3x5mm bolts  (to fasten CONTROL pcb to case)</t>
+  </si>
+  <si>
+    <t>case_front</t>
+  </si>
+  <si>
+    <t>case_back</t>
   </si>
 </sst>
 </file>
@@ -448,9 +448,9 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +480,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -517,7 +524,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -540,16 +547,20 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1883,7 +1894,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,133 +2089,144 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>B2*C2</f>
-        <v>0.68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D2:D3" si="0">B2*C2</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3">
-        <v>4.67</v>
+        <v>0.25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
-        <v>4.67</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3">
-        <v>17.5</v>
+        <v>0.68</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f>B4*C4</f>
+        <v>0.68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>2.56</v>
+        <v>4.67</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+        <f t="shared" ref="D5:D12" si="1">B5*C5</f>
+        <v>4.67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
-        <v>0.64</v>
+        <v>17.5</v>
       </c>
       <c r="C6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.92</v>
+        <f t="shared" si="1"/>
+        <v>17.5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>1.99</v>
+        <v>2.56</v>
       </c>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>3.98</v>
+        <f t="shared" si="1"/>
+        <v>2.56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -2213,137 +2235,140 @@
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13*B13</f>
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D17" si="2">C14*B14</f>
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.04</v>
+      </c>
       <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.04</v>
+      </c>
       <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.04</v>
+      </c>
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>102</v>
-      </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="D24" s="3">
-        <f>SUM(D2:D23)</f>
-        <v>31.31</v>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4">
+        <f>SUM(C4:C17)</f>
+        <v>34</v>
+      </c>
+      <c r="D19" s="16">
+        <f>SUM(D4:D18)</f>
+        <v>32.809999999999988</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A2CF861E-888C-4EF4-9753-1710C2F854D9}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{E6DA3233-8172-4A24-9A3D-7A2A4EBE0699}"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs" xr:uid="{71075C8E-0703-4C60-94E8-CD87B4076DB4}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{AE7470A6-37D7-4AE1-8F36-D4BF7E2DDAAD}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{892A1B4E-C4A3-4779-9E3C-5908BBD47162}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{A2CF861E-888C-4EF4-9753-1710C2F854D9}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{E6DA3233-8172-4A24-9A3D-7A2A4EBE0699}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://www.hktvmall.com/hktv/en/main/Galaxy-Digital/s/H5239001/Home-Appliances/Home-Appliances/Other-Small-Home-Appliances-%26-Accessories/Drill-%26-Extension-Cord-%26-Battery/Battery-%26-Battery-Charger/Button-Battery/CR1220-3V-Lithium-button-Cell-Battery-5pcs/p/H5239001_S_MURATA_CR1220_5pcs" xr:uid="{71075C8E-0703-4C60-94E8-CD87B4076DB4}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{AE7470A6-37D7-4AE1-8F36-D4BF7E2DDAAD}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{892A1B4E-C4A3-4779-9E3C-5908BBD47162}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -2362,49 +2387,49 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="5">
         <v>12</v>
@@ -2428,19 +2453,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2452,93 +2477,93 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="N8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2550,19 +2575,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
@@ -2586,198 +2611,198 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2803,96 +2828,96 @@
   <sheetData>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2930,7 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,7 +2941,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,16 +2949,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,82 +3238,82 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <v>3278505600</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1765264500</v>
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1765899240</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="13">
+        <v>109</v>
+      </c>
+      <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1513241100</v>
+        <v>1512606360</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="14">
-        <v>45994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="B7" s="13">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="14">
-        <v>46000</v>
+      <c r="B10" s="13">
+        <v>46006</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
         <f>B10-$B$7</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -3297,169 +3322,176 @@
         <f>A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="13">
+        <v>46007</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11" si="0">B11-$B$7</f>
+        <v>1</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" ref="A12:A27" si="0">A11+1</f>
+        <f t="shared" ref="A12:A27" si="1">A11+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3505,6 +3537,10 @@
       <c r="E33" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{32395FDD-25C4-48D1-95AC-4B6C14F3B284}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7649C8-C273-4ABF-9A5D-6F21ADC00D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D58331-1A5A-4B40-A32F-E321F0DE960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
   <si>
     <t>age</t>
   </si>
@@ -438,6 +438,27 @@
   </si>
   <si>
     <t>case_back</t>
+  </si>
+  <si>
+    <t>JST HX 2.54mm 5 pin connection wire (display PCB to control PCB)</t>
+  </si>
+  <si>
+    <t>JST HX 2.54mm 2 pin connection wire (USB-C to control board)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST HX 5 pin male </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST HX 2 pin male </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CM315RFP?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07G99NNXL?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>https://cnckitchen.store/products/heat-set-insert-m3-x-3-short-version-100-pieces</t>
   </si>
 </sst>
 </file>
@@ -2057,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,14 +2163,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <v>4.67</v>
+        <v>5.33</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D12" si="1">B5*C5</f>
-        <v>4.67</v>
+        <v>5.33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,6 +2307,9 @@
         <f>C13*B13</f>
         <v>1.1000000000000001</v>
       </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2295,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D17" si="2">C14*B14</f>
+        <f t="shared" ref="D14:D21" si="2">C14*B14</f>
         <v>0.16</v>
       </c>
     </row>
@@ -2329,7 +2356,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -2344,22 +2371,94 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="4">
+      <c r="B23" s="16"/>
+      <c r="C23" s="4">
         <f>SUM(C4:C17)</f>
         <v>34</v>
       </c>
-      <c r="D19" s="16">
-        <f>SUM(D4:D18)</f>
-        <v>32.809999999999988</v>
+      <c r="D23" s="16">
+        <f>SUM(D4:D22)</f>
+        <v>35.569999999999979</v>
       </c>
     </row>
   </sheetData>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D58331-1A5A-4B40-A32F-E321F0DE960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4C188-728C-4151-B270-3111A5477768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="5" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="pinout" sheetId="3" r:id="rId3"/>
     <sheet name="wiring" sheetId="4" r:id="rId4"/>
     <sheet name="power" sheetId="5" r:id="rId5"/>
-    <sheet name="check" sheetId="6" r:id="rId6"/>
+    <sheet name="testing" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2080,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040075C8-A1E2-455E-AE6B-B276B5D7A948}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3325,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,7 +3359,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="11">
-        <v>1765899240</v>
+        <v>1766021700</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1512606360</v>
+        <v>1512483900</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11" si="0">B11-$B$7</f>
+        <f t="shared" ref="D11:D12" si="0">B11-$B$7</f>
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
@@ -3438,9 +3438,16 @@
         <f t="shared" ref="A12:A27" si="1">A11+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>46009</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4C188-728C-4151-B270-3111A5477768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF4275-5B6D-42C1-811D-512992434A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="5" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
     <sheet name="bom" sheetId="2" r:id="rId2"/>
-    <sheet name="pinout" sheetId="3" r:id="rId3"/>
-    <sheet name="wiring" sheetId="4" r:id="rId4"/>
-    <sheet name="power" sheetId="5" r:id="rId5"/>
-    <sheet name="testing" sheetId="6" r:id="rId6"/>
+    <sheet name="SNdataBase" sheetId="7" r:id="rId3"/>
+    <sheet name="testing" sheetId="6" r:id="rId4"/>
+    <sheet name="pinout" sheetId="3" r:id="rId5"/>
+    <sheet name="wiring" sheetId="4" r:id="rId6"/>
+    <sheet name="power" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
   <si>
     <t>age</t>
   </si>
@@ -459,6 +460,60 @@
   </si>
   <si>
     <t>https://cnckitchen.store/products/heat-set-insert-m3-x-3-short-version-100-pieces</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>deathDate</t>
+  </si>
+  <si>
+    <t>unixTime</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>&lt;-enter</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>danni</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>dad</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
 </sst>
 </file>
@@ -545,7 +600,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -579,6 +634,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2081,7 +2142,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,6 +2536,575 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1766021700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="5">
+        <v>83</v>
+      </c>
+      <c r="E4" s="13">
+        <v>63515</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3278505600</v>
+      </c>
+      <c r="G4" s="18">
+        <f>F4-$B$1</f>
+        <v>1512483900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="5">
+        <v>70</v>
+      </c>
+      <c r="E5" s="13">
+        <v>58062</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2807366400</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5-$B$1</f>
+        <v>1041344700</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5">
+        <v>96</v>
+      </c>
+      <c r="E6" s="13">
+        <v>68602</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3718022400</v>
+      </c>
+      <c r="G6" s="18">
+        <f>F6-$B$1</f>
+        <v>1952000700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="5">
+        <v>96</v>
+      </c>
+      <c r="E7" s="13">
+        <v>56450</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2668089600</v>
+      </c>
+      <c r="G7" s="18">
+        <f>F7-$B$1</f>
+        <v>902067900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3278505600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1766021700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="12">
+        <f>B3-B4</f>
+        <v>1512483900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="13">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>46006</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f>B10-$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>A10+1</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="13">
+        <v>46007</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D12" si="0">B11-$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" ref="A12:A27" si="1">A11+1</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="13">
+        <v>46009</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{32395FDD-25C4-48D1-95AC-4B6C14F3B284}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAFC3F-1D3C-45FB-9E17-B92A724506CA}">
   <dimension ref="A2:S36"/>
   <sheetViews>
@@ -2591,12 +3221,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -2617,10 +3247,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -2641,10 +3271,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
@@ -2912,7 +3542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47E72F-3022-4AB1-BC84-A5B0028E59BF}">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -3024,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110D06D-0929-46BF-9621-C208DE6BEE00}">
   <dimension ref="A2:D20"/>
   <sheetViews>
@@ -3319,334 +3949,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3278505600</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1766021700</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="12">
-        <f>B3-B4</f>
-        <v>1512483900</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="13">
-        <v>46006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13">
-        <v>46006</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <f>B10-$B$7</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>A10+1</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="13">
-        <v>46007</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" ref="D11:D12" si="0">B11-$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" ref="A12:A27" si="1">A11+1</f>
-        <v>3</v>
-      </c>
-      <c r="B12" s="13">
-        <v>46009</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{32395FDD-25C4-48D1-95AC-4B6C14F3B284}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
 </file>
--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF4275-5B6D-42C1-811D-512992434A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24BD57-21A7-4B77-A541-0E81A9620C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
   <si>
     <t>age</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>for issues per SN see github</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +567,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -600,7 +610,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -642,6 +652,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2537,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2573,8 @@
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -2565,130 +2589,129 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="5">
-        <v>83</v>
-      </c>
-      <c r="E4" s="13">
-        <v>63515</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3278505600</v>
-      </c>
-      <c r="G4" s="18">
-        <f>F4-$B$1</f>
-        <v>1512483900</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="5">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13">
-        <v>58062</v>
+        <v>63515</v>
       </c>
       <c r="F5" s="1">
-        <v>2807366400</v>
+        <v>3278505600</v>
       </c>
       <c r="G5" s="18">
         <f>F5-$B$1</f>
-        <v>1041344700</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>1512483900</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D6" s="5">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13">
-        <v>68602</v>
+        <v>58062</v>
       </c>
       <c r="F6" s="1">
-        <v>3718022400</v>
+        <v>2807366400</v>
       </c>
       <c r="G6" s="18">
         <f>F6-$B$1</f>
+        <v>1041344700</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="21">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22">
+        <v>68602</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3718022400</v>
+      </c>
+      <c r="G7" s="24">
+        <f>F7-$B$1</f>
         <v>1952000700</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="21">
         <v>96</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="22">
         <v>56450</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="23">
         <v>2668089600</v>
       </c>
-      <c r="G7" s="18">
-        <f>F7-$B$1</f>
+      <c r="G8" s="24">
+        <f>F8-$B$1</f>
         <v>902067900</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -2754,6 +2777,8 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="E18" s="13"/>
       <c r="F18" s="1"/>
       <c r="G18" s="18"/>
@@ -2765,9 +2790,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="13"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2779,7 +2809,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2842,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="11">
-        <v>1766021700</v>
+        <v>1766114280</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -2824,7 +2854,7 @@
       </c>
       <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1512483900</v>
+        <v>1512391320</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -2881,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11:D12" si="0">B11-$B$7</f>
+        <f t="shared" ref="D11:D13" si="0">B11-$B$7</f>
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
@@ -2908,9 +2938,16 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>46010</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24BD57-21A7-4B77-A541-0E81A9620C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7ABAC5-94A3-439A-BB18-FBA9055468EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -650,9 +650,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,6 +662,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2562,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2668,47 +2668,47 @@
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>96</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>68602</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>3718022400</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <f>F7-$B$1</f>
         <v>1952000700</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>96</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>56450</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>2668089600</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <f>F8-$B$1</f>
         <v>902067900</v>
       </c>
@@ -2808,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,7 +2842,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="11">
-        <v>1766114280</v>
+        <v>1766923200</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1512391320</v>
+        <v>1511582400</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11:D13" si="0">B11-$B$7</f>
+        <f t="shared" ref="D11:D15" si="0">B11-$B$7</f>
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
@@ -2955,9 +2955,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="13">
+        <v>46014</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,9 +2972,14 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>46019</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,12 +3270,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -3284,10 +3296,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -3308,10 +3320,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7ABAC5-94A3-439A-BB18-FBA9055468EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDAC428-8DFF-496A-8E13-4EE4BF56BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>age</t>
   </si>
@@ -480,9 +480,6 @@
     <t>ali</t>
   </si>
   <si>
-    <t>div</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -492,21 +489,9 @@
     <t>LE</t>
   </si>
   <si>
-    <t>&lt;-enter</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
-    <t>danni</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
     <t>colour</t>
   </si>
   <si>
@@ -517,6 +502,15 @@
   </si>
   <si>
     <t>for issues per SN see github</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>RTC_set</t>
+  </si>
+  <si>
+    <t>&lt;&lt; ENTER</t>
   </si>
 </sst>
 </file>
@@ -569,7 +563,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -610,7 +603,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -650,21 +643,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2560,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,14 +2557,15 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>108</v>
       </c>
@@ -2586,218 +2573,210 @@
         <v>1766021700</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="13">
+        <v>46021</v>
+      </c>
+      <c r="E5" s="5">
         <v>83</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>63515</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3278505600</v>
       </c>
-      <c r="G5" s="18">
-        <f>F5-$B$1</f>
+      <c r="H5" s="18">
+        <f>G5-$B$1</f>
         <v>1512483900</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="5">
-        <v>70</v>
-      </c>
-      <c r="E6" s="13">
-        <v>58062</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2807366400</v>
-      </c>
-      <c r="G6" s="18">
-        <f>F6-$B$1</f>
-        <v>1041344700</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="13">
+        <v>46021</v>
+      </c>
+      <c r="E6" s="5">
+        <v>83</v>
+      </c>
+      <c r="F6" s="13">
+        <v>63515</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3278505600</v>
+      </c>
+      <c r="H6" s="18">
+        <f>G6-$B$1</f>
+        <v>1512483900</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="20">
-        <v>96</v>
-      </c>
-      <c r="E7" s="21">
-        <v>68602</v>
-      </c>
-      <c r="F7" s="22">
-        <v>3718022400</v>
-      </c>
-      <c r="G7" s="23">
-        <f>F7-$B$1</f>
-        <v>1952000700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="20">
-        <v>96</v>
-      </c>
-      <c r="E8" s="21">
-        <v>56450</v>
-      </c>
-      <c r="F8" s="22">
-        <v>2668089600</v>
-      </c>
-      <c r="G8" s="23">
-        <f>F8-$B$1</f>
-        <v>902067900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="13">
+        <v>46021</v>
+      </c>
+      <c r="E7" s="5">
+        <v>83</v>
+      </c>
+      <c r="F7" s="13">
+        <v>63515</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3278505600</v>
+      </c>
+      <c r="H7" s="18">
+        <f>G7-$B$1</f>
+        <v>1512483900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="13"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="13"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="13"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3270,12 +3249,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -3296,10 +3275,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -3320,10 +3299,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDAC428-8DFF-496A-8E13-4EE4BF56BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7BAE09-8B5D-40E1-8AB6-1AD7C1932434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
   <si>
     <t>age</t>
   </si>
@@ -411,9 +411,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>delta (s)</t>
-  </si>
-  <si>
     <t>start:</t>
   </si>
   <si>
@@ -511,17 +508,30 @@
   </si>
   <si>
     <t>&lt;&lt; ENTER</t>
+  </si>
+  <si>
+    <t>SN01</t>
+  </si>
+  <si>
+    <t>SN02</t>
+  </si>
+  <si>
+    <t>SN03</t>
+  </si>
+  <si>
+    <t>Delta T (sec)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -603,7 +613,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -633,9 +643,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,13 +650,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2182,7 +2207,7 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3">
         <v>0.48</v>
@@ -2197,7 +2222,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3">
         <v>0.25</v>
@@ -2243,7 +2268,7 @@
         <v>5.33</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2365,7 +2390,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3">
         <v>0.11</v>
@@ -2378,12 +2403,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3">
         <v>0.04</v>
@@ -2398,7 +2423,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="3">
         <v>0.04</v>
@@ -2428,7 +2453,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3">
         <v>0.04</v>
@@ -2443,7 +2468,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -2456,12 +2481,12 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="3">
         <v>0.5</v>
@@ -2474,12 +2499,12 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="3">
         <v>0.15</v>
@@ -2492,12 +2517,12 @@
         <v>0.3</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3">
         <v>0.15</v>
@@ -2510,7 +2535,7 @@
         <v>0.3</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,12 +2546,12 @@
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4">
         <f>SUM(C4:C17)</f>
         <v>34</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f>SUM(D4:D22)</f>
         <v>35.569999999999979</v>
       </c>
@@ -2548,7 +2573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2573,52 +2598,52 @@
         <v>1766021700</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="C5" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="13">
         <v>46021</v>
@@ -2632,20 +2657,20 @@
       <c r="G5" s="1">
         <v>3278505600</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f>G5-$B$1</f>
         <v>1512483900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>143</v>
+      <c r="A6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13">
         <v>46021</v>
@@ -2659,21 +2684,21 @@
       <c r="G6" s="1">
         <v>3278505600</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f>G6-$B$1</f>
         <v>1512483900</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>146</v>
+      <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="D7" s="13">
         <v>46021</v>
@@ -2687,90 +2712,90 @@
       <c r="G7" s="1">
         <v>3278505600</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>G7-$B$1</f>
         <v>1512483900</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="F8" s="13"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="F9" s="13"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="F10" s="13"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="F12" s="13"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="F13" s="13"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="F14" s="13"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="F15" s="13"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="F17" s="13"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="13"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="13"/>
@@ -2785,19 +2810,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -2805,7 +2830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2813,317 +2838,355 @@
         <v>3278505600</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="11">
-        <v>1766923200</v>
+        <v>1767080340</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1511582400</v>
+        <v>1511425260</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="13">
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="13">
-        <v>46006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="13">
-        <v>46006</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B11" s="13">
+        <v>46021</v>
+      </c>
+      <c r="C11" s="21">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <f>B10-$B$7</f>
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>A10+1</f>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>B11-$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="13">
-        <v>46007</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" ref="D11:D15" si="0">B11-$B$7</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" ref="A12:A27" si="1">A11+1</f>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" ref="A13:A28" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="13">
-        <v>46009</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B13" s="13">
-        <v>46010</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="13">
-        <v>46014</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="13">
-        <v>46019</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7">
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{32395FDD-25C4-48D1-95AC-4B6C14F3B284}"/>
   </hyperlinks>
@@ -3249,12 +3312,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -3275,10 +3338,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -3299,10 +3362,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7BAE09-8B5D-40E1-8AB6-1AD7C1932434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA05B0-67AE-4142-A75B-B93256A63E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>age</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Delta T (sec)</t>
+  </si>
+  <si>
+    <t>div</t>
   </si>
 </sst>
 </file>
@@ -656,9 +659,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2573,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2598,7 @@
         <v>108</v>
       </c>
       <c r="B1" s="11">
-        <v>1766021700</v>
+        <v>1767367080</v>
       </c>
       <c r="C1" t="s">
         <v>147</v>
@@ -2659,7 +2662,7 @@
       </c>
       <c r="H5" s="17">
         <f>G5-$B$1</f>
-        <v>1512483900</v>
+        <v>1511138520</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,23 +2673,23 @@
         <v>142</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D6" s="13">
         <v>46021</v>
       </c>
       <c r="E6" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="13">
-        <v>63515</v>
+        <v>62245</v>
       </c>
       <c r="G6" s="1">
-        <v>3278505600</v>
+        <v>3168777600</v>
       </c>
       <c r="H6" s="17">
         <f>G6-$B$1</f>
-        <v>1512483900</v>
+        <v>1401410520</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -2714,7 +2717,7 @@
       </c>
       <c r="H7" s="17">
         <f>G7-$B$1</f>
-        <v>1512483900</v>
+        <v>1511138520</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2812,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2849,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="11">
-        <v>1767080340</v>
+        <v>1767366150</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="B5" s="12">
         <f>B3-B4</f>
-        <v>1511425260</v>
+        <v>1511139450</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -2876,32 +2879,32 @@
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -2910,13 +2913,13 @@
       <c r="B11" s="13">
         <v>46021</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
       <c r="F11" s="7">
@@ -2930,11 +2933,22 @@
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="13">
+        <v>46024</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="7">
+        <f>B12-$B$7</f>
+        <v>3</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,9 +2957,9 @@
         <v>3</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
     </row>
@@ -2955,9 +2969,9 @@
         <v>4</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5"/>
     </row>
@@ -2967,9 +2981,9 @@
         <v>5</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
@@ -2979,9 +2993,9 @@
         <v>6</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
     </row>
@@ -2991,9 +3005,9 @@
         <v>7</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
     </row>
@@ -3003,9 +3017,9 @@
         <v>8</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
     </row>
@@ -3015,9 +3029,9 @@
         <v>9</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
     </row>
@@ -3027,9 +3041,9 @@
         <v>10</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
     </row>
@@ -3039,9 +3053,9 @@
         <v>11</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
     </row>
@@ -3051,9 +3065,9 @@
         <v>12</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
     </row>
@@ -3063,9 +3077,9 @@
         <v>13</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="5"/>
     </row>
@@ -3075,9 +3089,9 @@
         <v>14</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
     </row>
@@ -3087,9 +3101,9 @@
         <v>15</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
     </row>
@@ -3099,9 +3113,9 @@
         <v>16</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
     </row>
@@ -3111,9 +3125,9 @@
         <v>17</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
     </row>
@@ -3123,9 +3137,9 @@
         <v>18</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
     </row>
@@ -3312,12 +3326,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -3338,10 +3352,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -3362,10 +3376,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA05B0-67AE-4142-A75B-B93256A63E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1E86B-BFFA-4516-8DBE-232C3CA09398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2598,7 @@
         <v>108</v>
       </c>
       <c r="B1" s="11">
-        <v>1767367080</v>
+        <v>1767408130</v>
       </c>
       <c r="C1" t="s">
         <v>147</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="H5" s="17">
         <f>G5-$B$1</f>
-        <v>1511138520</v>
+        <v>1511097470</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H6" s="17">
         <f>G6-$B$1</f>
-        <v>1401410520</v>
+        <v>1401369470</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H7" s="17">
         <f>G7-$B$1</f>
-        <v>1511138520</v>
+        <v>1511097470</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1E86B-BFFA-4516-8DBE-232C3CA09398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459EB5D-E5C6-48BF-ADB5-69BA634839F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
     <sheet name="bom" sheetId="2" r:id="rId2"/>
-    <sheet name="SNdataBase" sheetId="7" r:id="rId3"/>
-    <sheet name="testing" sheetId="6" r:id="rId4"/>
-    <sheet name="pinout" sheetId="3" r:id="rId5"/>
-    <sheet name="wiring" sheetId="4" r:id="rId6"/>
-    <sheet name="power" sheetId="5" r:id="rId7"/>
+    <sheet name="dataBase" sheetId="7" r:id="rId3"/>
+    <sheet name="printing" sheetId="8" r:id="rId4"/>
+    <sheet name="testing" sheetId="6" r:id="rId5"/>
+    <sheet name="pinout" sheetId="3" r:id="rId6"/>
+    <sheet name="wiring" sheetId="4" r:id="rId7"/>
+    <sheet name="power" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
   <si>
     <t>age</t>
   </si>
@@ -523,6 +524,27 @@
   </si>
   <si>
     <t>div</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>infill</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>0.2 structural</t>
+  </si>
+  <si>
+    <t>PLA</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2599,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,10 +2834,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B8A8C2-560E-4983-9205-545EC285EE6E}">
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E73C36-9CBA-48BD-8D18-27663C3EFD9B}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3209,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAFC3F-1D3C-45FB-9E17-B92A724506CA}">
   <dimension ref="A2:S36"/>
   <sheetViews>
@@ -3647,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47E72F-3022-4AB1-BC84-A5B0028E59BF}">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -3759,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110D06D-0929-46BF-9621-C208DE6BEE00}">
   <dimension ref="A2:D20"/>
   <sheetViews>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459EB5D-E5C6-48BF-ADB5-69BA634839F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43628405-6FC5-4545-9647-93B5072B08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>age</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>PLA</t>
+  </si>
+  <si>
+    <t>bed temp 70C for adhesion</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2841,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2904,9 @@
       </c>
       <c r="E4">
         <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43628405-6FC5-4545-9647-93B5072B08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3DEBC-1B25-4197-B066-4B86CF7362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>age</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>bed temp 70C for adhesion</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>dad</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
@@ -704,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2601,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2632,7 @@
         <v>108</v>
       </c>
       <c r="B1" s="11">
-        <v>1767408130</v>
+        <v>1767674400</v>
       </c>
       <c r="C1" t="s">
         <v>147</v>
@@ -2687,7 +2696,7 @@
       </c>
       <c r="H5" s="17">
         <f>G5-$B$1</f>
-        <v>1511097470</v>
+        <v>1510831200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2714,7 +2723,7 @@
       </c>
       <c r="H6" s="17">
         <f>G6-$B$1</f>
-        <v>1401369470</v>
+        <v>1401103200</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -2742,15 +2751,35 @@
       </c>
       <c r="H7" s="17">
         <f>G7-$B$1</f>
-        <v>1511097470</v>
+        <v>1510831200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="17"/>
+      <c r="A8" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="27">
+        <v>46028</v>
+      </c>
+      <c r="E8" s="5">
+        <v>84</v>
+      </c>
+      <c r="F8" s="13">
+        <v>52060</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2288793600</v>
+      </c>
+      <c r="H8" s="17">
+        <f>G8-$B$1</f>
+        <v>521119200</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
@@ -2840,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B8A8C2-560E-4983-9205-545EC285EE6E}">
   <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3DEBC-1B25-4197-B066-4B86CF7362BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55CC7B8-AFE8-4766-B1D9-747810C3C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>age</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>dad</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -702,6 +705,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2213,7 +2216,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,15 +2613,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4C4D-67F5-47E1-835A-1F494C96898F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2683,7 +2686,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="13">
-        <v>46021</v>
+        <v>46028</v>
       </c>
       <c r="E5" s="5">
         <v>83</v>
@@ -2738,7 +2741,7 @@
         <v>145</v>
       </c>
       <c r="D7" s="13">
-        <v>46021</v>
+        <v>46028</v>
       </c>
       <c r="E7" s="5">
         <v>83</v>
@@ -2764,7 +2767,7 @@
       <c r="C8" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>46028</v>
       </c>
       <c r="E8" s="5">
@@ -2782,7 +2785,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="B9" s="16"/>
       <c r="F9" s="13"/>
       <c r="G9" s="1"/>
@@ -3011,11 +3016,11 @@
       <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
@@ -3458,12 +3463,12 @@
         <v>45</v>
       </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
@@ -3484,10 +3489,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="5"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -3508,10 +3513,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>

--- a/existential_clock.xlsx
+++ b/existential_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Existential-Clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55CC7B8-AFE8-4766-B1D9-747810C3C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A5E584-A2E1-4D78-A897-AE5D673F9CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{40828F16-29DA-45C9-A086-6FC10EDDC1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>age</t>
   </si>
@@ -554,9 +554,6 @@
   </si>
   <si>
     <t>dad</t>
-  </si>
-  <si>
-    <t>05</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2611,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2632,7 @@
         <v>108</v>
       </c>
       <c r="B1" s="11">
-        <v>1767674400</v>
+        <v>1767688140</v>
       </c>
       <c r="C1" t="s">
         <v>147</v>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="H5" s="17">
         <f>G5-$B$1</f>
-        <v>1510831200</v>
+        <v>1510817460</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2726,7 +2723,7 @@
       </c>
       <c r="H6" s="17">
         <f>G6-$B$1</f>
-        <v>1401103200</v>
+        <v>1401089460</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -2754,7 +2751,7 @@
       </c>
       <c r="H7" s="17">
         <f>G7-$B$1</f>
-        <v>1510831200</v>
+        <v>1510817460</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2781,13 +2778,11 @@
       </c>
       <c r="H8" s="17">
         <f>G8-$B$1</f>
-        <v>521119200</v>
+        <v>521105460</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>163</v>
-      </c>
+      <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="F9" s="13"/>
       <c r="G9" s="1"/>
@@ -2953,7 +2948,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
